--- a/public/PAYSLIPS/October-2014-payslips.xlsx
+++ b/public/PAYSLIPS/October-2014-payslips.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -78,23 +78,25 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.38988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.08988764044944"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.58988764044944"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="20.68988764044944"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.38988764044944"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.38988764044944"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.38988764044944"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="17.38988764044944"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.28988764044944"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.28988764044944"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.28988764044944"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.38988764044944"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.68988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -165,45 +167,55 @@
       </c>
       <c r="N1" s="0" t="inlineStr">
         <is>
+          <t>HRA</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
           <t>Spcl Allowance</t>
         </is>
       </c>
-      <c r="O1" s="0" t="inlineStr">
+      <c r="Q1" s="0" t="inlineStr">
         <is>
           <t>Arrears</t>
         </is>
       </c>
-      <c r="P1" s="0" t="inlineStr">
+      <c r="R1" s="0" t="inlineStr">
         <is>
           <t>Gross Pay</t>
         </is>
       </c>
-      <c r="Q1" s="0" t="inlineStr">
+      <c r="S1" s="0" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="R1" s="0" t="inlineStr">
+      <c r="T1" s="0" t="inlineStr">
         <is>
           <t>ESIC</t>
         </is>
       </c>
-      <c r="S1" s="0" t="inlineStr">
+      <c r="U1" s="0" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="T1" s="0" t="inlineStr">
+      <c r="V1" s="0" t="inlineStr">
         <is>
           <t>TDS</t>
         </is>
       </c>
-      <c r="U1" s="0" t="inlineStr">
+      <c r="W1" s="0" t="inlineStr">
         <is>
           <t>total_deducations</t>
         </is>
       </c>
-      <c r="V1" s="0" t="inlineStr">
+      <c r="X1" s="0" t="inlineStr">
         <is>
           <t>NetPay</t>
         </is>
@@ -262,30 +274,36 @@
         <v>333.333</v>
       </c>
       <c r="N2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="0" t="n">
         <v>445.42</v>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" s="0" t="n">
         <v>778.753</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>13.63</v>
       </c>
-      <c r="S2" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U2" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" s="0" t="n">
         <v>53.63</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>725.123</v>
       </c>
     </row>
@@ -315,7 +333,7 @@
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>Junior HR</t>
+          <t>Junior Development</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
@@ -324,13 +342,13 @@
         </is>
       </c>
       <c r="H3" s="0" t="n">
-        <v>12000000000000.0</v>
+        <v>120000.0</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1000000000000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>934500000000.0</v>
+        <v>9345.0</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>31.0</v>
@@ -339,34 +357,40 @@
         <v>31.0</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>400000000000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>534500000000.0</v>
+        <v>800.0</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>934500000000.0</v>
+        <v>4145.0</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>48000000000.0</v>
+        <v>0.0</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>16353800000.0</v>
+        <v>9345.0</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>0.0</v>
+        <v>480.0</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>0.0</v>
+        <v>163.54</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>64353800000.0</v>
+        <v>0.0</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>870146000000.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>643.54</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>8701.46</v>
       </c>
     </row>
   </sheetData>

--- a/public/PAYSLIPS/October-2014-payslips.xlsx
+++ b/public/PAYSLIPS/October-2014-payslips.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -75,28 +75,28 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="17.38988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.08988764044944"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.68988764044944"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.18988764044944"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="5.289887640449439"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.88988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -167,12 +167,12 @@
       </c>
       <c r="N1" s="0" t="inlineStr">
         <is>
-          <t>HRA</t>
+          <t>Car Allowance</t>
         </is>
       </c>
       <c r="O1" s="0" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>Education Allowance</t>
         </is>
       </c>
       <c r="P1" s="0" t="inlineStr">
@@ -247,22 +247,22 @@
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>Junior HR</t>
+          <t>Junior Development</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="H2" s="0" t="n">
-        <v>10000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>833.3333333333334</v>
+        <v>1500.0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>778.753</v>
+        <v>1401.57</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>31.0</v>
@@ -271,28 +271,28 @@
         <v>31.0</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>333.333</v>
+        <v>601.5</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>0</v>
+        <v>25.0</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>0</v>
+        <v>60.15</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>445.42</v>
+        <v>714.92</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>778.753</v>
+        <v>1401.57</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>40.0</v>
+        <v>72.18</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>13.63</v>
+        <v>24.53</v>
       </c>
       <c r="U2" s="0" t="n">
         <v>0.0</v>
@@ -301,10 +301,10 @@
         <v>0.0</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>53.63</v>
+        <v>96.71</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>725.123</v>
+        <v>1304.86</v>
       </c>
     </row>
     <row r="3">
@@ -333,64 +333,236 @@
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
+          <t>Junior HR</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1557.3</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>668.333</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>863.97</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>1557.3</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>107.45</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>1449.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>10-2014</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Priyanka Muddana</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>2014-03-03</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>Junior HR</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>235235.0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>19602.916666666668</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>18318.9</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>7841.17</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>10477.8</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>18318.9</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>940.94</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>320.58</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>1261.52</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>17057.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>10-2014</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Brathathi  Arora</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>29/10/2014</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>F&amp;F</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
           <t>Junior Development</t>
         </is>
       </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>120000.0</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>9345.0</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>4000.0</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>4145.0</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>9345.0</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>480.0</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>163.54</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>643.54</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>8701.46</v>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>43344300.0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>3612025.0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>3375010.0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>1448420.0</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1926580.0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>3375010.0</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>173811.0</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>59062.6</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>232874.0</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>3142130.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/PAYSLIPS/October-2014-payslips.xlsx
+++ b/public/PAYSLIPS/October-2014-payslips.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -76,27 +76,27 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.08988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="17.38988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.08988764044944"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="15.18988764044944"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="5.289887640449439"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.68988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -477,92 +477,6 @@
       </c>
       <c r="X4" s="0" t="n">
         <v>17057.4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>10-2014</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>Brathathi  Arora</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>29/10/2014</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>F&amp;F</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>Junior Development</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>43344300.0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>3612025.0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>3375010.0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>1448420.0</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>1926580.0</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>3375010.0</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>173811.0</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>59062.6</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>232874.0</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>3142130.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/PAYSLIPS/October-2014-payslips.xlsx
+++ b/public/PAYSLIPS/October-2014-payslips.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -75,19 +75,19 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.38988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="17.38988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.68988764044944"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="5.289887640449439"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="9.68988764044944"/>
@@ -95,8 +95,10 @@
     <col min="20" max="20" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="5.289887640449439"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.28988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.28988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="9.68988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -167,14 +169,14 @@
       </c>
       <c r="N1" s="0" t="inlineStr">
         <is>
+          <t>DA</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
           <t>HRA</t>
         </is>
       </c>
-      <c r="O1" s="0" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
       <c r="P1" s="0" t="inlineStr">
         <is>
           <t>Spcl Allowance</t>
@@ -212,10 +214,20 @@
       </c>
       <c r="W1" s="0" t="inlineStr">
         <is>
+          <t>Deducted allowance1</t>
+        </is>
+      </c>
+      <c r="X1" s="0" t="inlineStr">
+        <is>
+          <t>Deducted allowance2</t>
+        </is>
+      </c>
+      <c r="Y1" s="0" t="inlineStr">
+        <is>
           <t>total_deducations</t>
         </is>
       </c>
-      <c r="X1" s="0" t="inlineStr">
+      <c r="Z1" s="0" t="inlineStr">
         <is>
           <t>NetPay</t>
         </is>
@@ -237,7 +249,7 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>2014-03-03</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
@@ -247,7 +259,7 @@
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>Junior HR</t>
+          <t>Senior HR</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
@@ -256,13 +268,13 @@
         </is>
       </c>
       <c r="H2" s="0" t="n">
+        <v>120000.0</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>10000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>833.3333333333334</v>
-      </c>
       <c r="J2" s="0" t="n">
-        <v>778.753</v>
+        <v>9386.67</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>31.0</v>
@@ -271,28 +283,28 @@
         <v>31.0</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>333.333</v>
+        <v>4000.0</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>0</v>
+        <v>800.0</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>0</v>
+        <v>1000.0</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>445.42</v>
+        <v>3461.67</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>778.753</v>
+        <v>9386.67</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>40.0</v>
+        <v>480.0</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>13.63</v>
+        <v>164.27</v>
       </c>
       <c r="U2" s="0" t="n">
         <v>0.0</v>
@@ -301,10 +313,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>53.63</v>
+        <v>0</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>725.123</v>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>685.94</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>8700.73</v>
       </c>
     </row>
     <row r="3">
@@ -318,19 +336,15 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>BalaRaju Vankala</t>
+          <t>Priyanka Muddana</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>2014-03-03</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
-      </c>
+          <t>01/06/2014</t>
+        </is>
+      </c>
+      <c r="E3" s="0"/>
       <c r="F3" s="0" t="inlineStr">
         <is>
           <t>Junior Development</t>
@@ -338,7 +352,7 @@
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="H3" s="0" t="n">
@@ -348,7 +362,7 @@
         <v>10000.0</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>9345.0</v>
+        <v>9561.67</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>31.0</v>
@@ -363,22 +377,22 @@
         <v>800.0</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>400.0</v>
+        <v>1000.0</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>4145.0</v>
+        <v>3761.67</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>9345.0</v>
+        <v>9561.67</v>
       </c>
       <c r="S3" s="0" t="n">
         <v>480.0</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>163.54</v>
+        <v>0.0</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>0.0</v>
@@ -387,10 +401,108 @@
         <v>0.0</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>643.54</v>
+        <v>0</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>8701.46</v>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>521.67</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>9040.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>10-2014</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Pattabhi RamaRao Galidevara</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>02/06/2014</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>Junior Development</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>120000.0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>10000.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/PAYSLIPS/October-2014-payslips.xlsx
+++ b/public/PAYSLIPS/October-2014-payslips.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -75,30 +75,26 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.38988764044944"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.08988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="17.38988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.08988764044944"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.789887640449443"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.68988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="16.28988764044944"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.28988764044944"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.68988764044944"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.68988764044944"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.68988764044944"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.68988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -169,65 +165,45 @@
       </c>
       <c r="N1" s="0" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>Spcl Allowance</t>
         </is>
       </c>
       <c r="O1" s="0" t="inlineStr">
         <is>
-          <t>HRA</t>
+          <t>Arrears</t>
         </is>
       </c>
       <c r="P1" s="0" t="inlineStr">
         <is>
-          <t>Spcl Allowance</t>
+          <t>Gross Pay</t>
         </is>
       </c>
       <c r="Q1" s="0" t="inlineStr">
         <is>
-          <t>Arrears</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="R1" s="0" t="inlineStr">
         <is>
-          <t>Gross Pay</t>
+          <t>ESIC</t>
         </is>
       </c>
       <c r="S1" s="0" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="T1" s="0" t="inlineStr">
         <is>
-          <t>ESIC</t>
+          <t>TDS</t>
         </is>
       </c>
       <c r="U1" s="0" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>total_deducations</t>
         </is>
       </c>
       <c r="V1" s="0" t="inlineStr">
-        <is>
-          <t>TDS</t>
-        </is>
-      </c>
-      <c r="W1" s="0" t="inlineStr">
-        <is>
-          <t>Deducted allowance1</t>
-        </is>
-      </c>
-      <c r="X1" s="0" t="inlineStr">
-        <is>
-          <t>Deducted allowance2</t>
-        </is>
-      </c>
-      <c r="Y1" s="0" t="inlineStr">
-        <is>
-          <t>total_deducations</t>
-        </is>
-      </c>
-      <c r="Z1" s="0" t="inlineStr">
         <is>
           <t>NetPay</t>
         </is>
@@ -249,7 +225,7 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>2014-03-03</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
@@ -259,22 +235,22 @@
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>Senior HR</t>
+          <t>Junior Development</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="H2" s="0" t="n">
-        <v>120000.0</v>
+        <v>350000.0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>10000.0</v>
+        <v>29166.666666666668</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>9386.67</v>
+        <v>27256.2</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>31.0</v>
@@ -283,46 +259,34 @@
         <v>31.0</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>4000.0</v>
+        <v>11666.7</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>800.0</v>
+        <v>15589.6</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>3461.67</v>
+        <v>27256.2</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0.0</v>
+        <v>1400.0</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>9386.67</v>
+        <v>476.98</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>480.0</v>
+        <v>0.0</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>164.27</v>
+        <v>0.0</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>0.0</v>
+        <v>1876.98</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>685.94</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>8700.73</v>
+        <v>25379.3</v>
       </c>
     </row>
     <row r="3">
@@ -336,33 +300,37 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Priyanka Muddana</t>
+          <t>BalaRaju Vankala</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
-        </is>
-      </c>
-      <c r="E3" s="0"/>
+          <t>2014-03-03</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>Junior Development</t>
+          <t>Junior HR</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="H3" s="0" t="n">
-        <v>120000.0</v>
+        <v>1.0e+16</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>10000.0</v>
+        <v>833333333333333.4</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>9561.67</v>
+        <v>833333000000000.0</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>31.0</v>
@@ -371,25 +339,25 @@
         <v>31.0</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>4000.0</v>
+        <v>333333000000000.0</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>800.0</v>
+        <v>500000000000000.0</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>3761.67</v>
+        <v>833333000000000.0</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>9561.67</v>
+        <v>0.0</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>480.0</v>
+        <v>0.0</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>0.0</v>
@@ -398,111 +366,7 @@
         <v>0.0</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>521.67</v>
-      </c>
-      <c r="Z3" s="0" t="n">
-        <v>9040.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>10-2014</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>Pattabhi RamaRao Galidevara</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>02/06/2014</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>Junior Development</t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>120000.0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>4000.0</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>6000.0</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>10000.0</v>
+        <v>833333000000000.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/PAYSLIPS/October-2014-payslips.xlsx
+++ b/public/PAYSLIPS/October-2014-payslips.xlsx
@@ -86,15 +86,15 @@
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="5.289887640449439"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="7.489887640449439"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="16.28988764044944"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="16.28988764044944"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="11.88988764044944"/>
@@ -274,7 +274,7 @@
         <v>10000.0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>9386.67</v>
+        <v>10000.0</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>31.0</v>
@@ -286,25 +286,25 @@
         <v>4000.0</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>3461.67</v>
+        <v>6000.0</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>9386.67</v>
+        <v>10000.0</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>480.0</v>
+        <v>0.0</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>164.27</v>
+        <v>0.0</v>
       </c>
       <c r="U2" s="0" t="n">
         <v>0.0</v>
@@ -319,10 +319,10 @@
         <v>0</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>685.94</v>
+        <v>0.0</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>8700.73</v>
+        <v>10000.0</v>
       </c>
     </row>
     <row r="3">
@@ -362,7 +362,7 @@
         <v>10000.0</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>9561.67</v>
+        <v>9345.0</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>31.0</v>
@@ -374,25 +374,25 @@
         <v>4000.0</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>800.0</v>
+        <v>0</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>3761.67</v>
+        <v>5345.0</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>9561.67</v>
+        <v>9345.0</v>
       </c>
       <c r="S3" s="0" t="n">
         <v>480.0</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>0.0</v>
+        <v>163.54</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>0.0</v>
@@ -407,10 +407,10 @@
         <v>0</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>521.67</v>
+        <v>643.54</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>9040.0</v>
+        <v>8701.46</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>10000.0</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>10000.0</v>
+        <v>9520.0</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>31.0</v>
@@ -472,25 +472,25 @@
         <v>0</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>6000.0</v>
+        <v>5520.0</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>10000.0</v>
+        <v>9520.0</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>0.0</v>
+        <v>480.0</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>0.0</v>
+        <v>1200.0</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>0.0</v>
+        <v>1400.0</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>0.0</v>
+        <v>3080.0</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>10000.0</v>
+        <v>6440.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/PAYSLIPS/October-2014-payslips.xlsx
+++ b/public/PAYSLIPS/October-2014-payslips.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -78,22 +78,22 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.989887640449439"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.38988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="8.589887640449438"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.18988764044944"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="5.289887640449439"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="6.389887640449439"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="9.68988764044944"/>
@@ -167,47 +167,47 @@
       </c>
       <c r="N1" s="0" t="inlineStr">
         <is>
-          <t>ABC1</t>
+          <t>Car Allowance</t>
         </is>
       </c>
       <c r="O1" s="0" t="inlineStr">
         <is>
+          <t>Education Allowance</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
           <t>Spcl Allowance</t>
         </is>
       </c>
-      <c r="P1" s="0" t="inlineStr">
+      <c r="Q1" s="0" t="inlineStr">
         <is>
           <t>Arrears</t>
         </is>
       </c>
-      <c r="Q1" s="0" t="inlineStr">
+      <c r="R1" s="0" t="inlineStr">
         <is>
           <t>Gross Pay</t>
         </is>
       </c>
-      <c r="R1" s="0" t="inlineStr">
+      <c r="S1" s="0" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="S1" s="0" t="inlineStr">
+      <c r="T1" s="0" t="inlineStr">
         <is>
           <t>ESIC</t>
         </is>
       </c>
-      <c r="T1" s="0" t="inlineStr">
+      <c r="U1" s="0" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="U1" s="0" t="inlineStr">
+      <c r="V1" s="0" t="inlineStr">
         <is>
           <t>TDS</t>
-        </is>
-      </c>
-      <c r="V1" s="0" t="inlineStr">
-        <is>
-          <t>ABC</t>
         </is>
       </c>
       <c r="W1" s="0" t="inlineStr">
@@ -247,22 +247,22 @@
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>Junior HR</t>
+          <t>Junior Development</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="H2" s="0" t="n">
-        <v>120000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>10000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>9520.0</v>
+        <v>1401.57</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>31.0</v>
@@ -271,40 +271,40 @@
         <v>31.0</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>4000.0</v>
+        <v>601.5</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>0</v>
+        <v>25.0</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>5520.0</v>
+        <v>60.15</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>0.0</v>
+        <v>714.92</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>9520.0</v>
+        <v>0.0</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>480.0</v>
+        <v>1401.57</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0.0</v>
+        <v>72.18</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>0.0</v>
+        <v>24.53</v>
       </c>
       <c r="U2" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>480.0</v>
+        <v>96.71</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>9040.0</v>
+        <v>1304.86</v>
       </c>
     </row>
     <row r="3">
@@ -342,13 +342,13 @@
         </is>
       </c>
       <c r="H3" s="0" t="n">
-        <v>120000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>10000.0</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>10000.0</v>
+        <v>1557.3</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>31.0</v>
@@ -357,40 +357,40 @@
         <v>31.0</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>4000.0</v>
+        <v>668.333</v>
       </c>
       <c r="N3" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="O3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="0" t="n">
-        <v>6000.0</v>
-      </c>
       <c r="P3" s="0" t="n">
-        <v>0.0</v>
+        <v>863.97</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>10000.0</v>
+        <v>0.0</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>0.0</v>
+        <v>1557.3</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>0.0</v>
+        <v>80.2</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>0.0</v>
+        <v>27.25</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>0.0</v>
+        <v>107.45</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>10000.0</v>
+        <v>1449.85</v>
       </c>
     </row>
     <row r="4">
@@ -428,13 +428,13 @@
         </is>
       </c>
       <c r="H4" s="0" t="n">
-        <v>120000.0</v>
+        <v>235235.0</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>10000.0</v>
+        <v>19602.916666666668</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>9345.0</v>
+        <v>18318.9</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>31.0</v>
@@ -443,126 +443,40 @@
         <v>31.0</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>4000.0</v>
+        <v>7841.17</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>5345.0</v>
+        <v>0</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.0</v>
+        <v>10477.8</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>9345.0</v>
+        <v>0.0</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>480.0</v>
+        <v>18318.9</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>163.54</v>
+        <v>940.94</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>0.0</v>
+        <v>320.58</v>
       </c>
       <c r="U4" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>643.54</v>
+        <v>1261.52</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>8701.46</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>10-2014</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>pattabhi ramarao</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>2006-11-03</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>Junior Accounts</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>Accounts</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>120000.0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>9346.0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>4000.0</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>440.0</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>4906.0</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>9346.0</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>480.0</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>163.56</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>644.56</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>8701.44</v>
+        <v>17057.4</v>
       </c>
     </row>
   </sheetData>
